--- a/scenarios_and_results/Scenario_low_discount_A_par_battery.xlsx
+++ b/scenarios_and_results/Scenario_low_discount_A_par_battery.xlsx
@@ -1721,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0009128092671299708</v>
       </c>
       <c r="K9">
         <v>0.0004116940972864667</v>
       </c>
       <c r="L9">
-        <v>0.0004116940972864667</v>
+        <v>0.001324503364416437</v>
       </c>
       <c r="M9">
         <v>0.0005508476312276452</v>
@@ -1739,7 +1739,7 @@
         <v>0.1319532363097649</v>
       </c>
       <c r="P9">
-        <v>7.294567040815211</v>
+        <v>14.21223948794731</v>
       </c>
       <c r="Q9">
         <v>0.8024135197151306</v>
@@ -1760,7 +1760,7 @@
         <v>14.21223948794688</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>6.917672447132095</v>
       </c>
       <c r="X9">
         <v>3.120000000000002</v>
@@ -1798,13 +1798,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0001927541184782254</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.0001927541184782254</v>
       </c>
       <c r="M10">
         <v>0.0004694182833604124</v>
@@ -1816,7 +1816,7 @@
         <v>0.009547164257301059</v>
       </c>
       <c r="P10">
-        <v>49.16834682103971</v>
+        <v>69.35801919740207</v>
       </c>
       <c r="Q10">
         <v>0.1258784978705696</v>
@@ -1837,7 +1837,7 @@
         <v>69.35801919743851</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>20.18967237636238</v>
       </c>
       <c r="X10">
         <v>0</v>
